--- a/playground/read_table/temp.xlsx
+++ b/playground/read_table/temp.xlsx
@@ -1,141 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\06_python\ppl\playground\read_table\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848ECA56-B171-4B8D-81CE-8AC00C9F429C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
-  <si>
-    <t>GPON</t>
-  </si>
-  <si>
-    <t>NODE ID</t>
-  </si>
-  <si>
-    <t>SLOT</t>
-  </si>
-  <si>
-    <t>PORT</t>
-  </si>
-  <si>
-    <t>ONU SN</t>
-  </si>
-  <si>
-    <t>VALINS ID</t>
-  </si>
-  <si>
-    <t>ODP</t>
-  </si>
-  <si>
-    <t>GPON04-D7-MAT-4</t>
-  </si>
-  <si>
-    <t>172.25.119.69</t>
-  </si>
-  <si>
-    <t>ZTEGD358C526</t>
-  </si>
-  <si>
-    <t>ODP-MAT-FBM/080</t>
-  </si>
-  <si>
-    <t>GPON03-D7-MAT-5</t>
-  </si>
-  <si>
-    <t>172.25.192.76</t>
-  </si>
-  <si>
-    <t>ZTEGD1DEBA83</t>
-  </si>
-  <si>
-    <t>ODP-MAT-FF/13</t>
-  </si>
-  <si>
-    <t>GPON07-D7-MAT-4</t>
-  </si>
-  <si>
-    <t>172.25.212.139</t>
-  </si>
-  <si>
-    <t>ZTEGD358C525</t>
-  </si>
-  <si>
-    <t>22990459</t>
-  </si>
-  <si>
-    <t>ODP-MAT-FBW/029</t>
-  </si>
-  <si>
-    <t>FHTT9E790480</t>
-  </si>
-  <si>
-    <t>ODP-MAT-FS/049</t>
-  </si>
-  <si>
-    <t>GPON05-D7-MAT-4</t>
-  </si>
-  <si>
-    <t>172.25.119.107</t>
-  </si>
-  <si>
-    <t>ZTEGD35DAF8C</t>
-  </si>
-  <si>
-    <t>ODP-MAT-FW/033</t>
-  </si>
-  <si>
-    <t>FHTT9E7BC8E8</t>
-  </si>
-  <si>
-    <t>FHTTC02EDEC9</t>
-  </si>
-  <si>
-    <t>FHTT9E7BCAF0</t>
-  </si>
-  <si>
-    <t>Last Updated</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -150,44 +49,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,209 +424,348 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GPON</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NODE ID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SLOT</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PORT</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ONU SN</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>VALINS ID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ODP</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>First Updated</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Last Updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GPON04-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>172.25.119.69</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ZTEGD358C526</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>22990303</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FBM/080</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" s="2" t="n">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GPON03-D7-MAT-5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>172.25.192.76</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ZTEGD1DEBA83</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>22990483</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FF/13</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" s="2" t="n">
+        <v>45475</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GPON07-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>172.25.212.139</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ZTEGD358C525</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>22990465</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FBW/029</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2024-02-11 14:50:16</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>45333.61848379629</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GPON03-D7-MAT-5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>172.25.192.76</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>FHTT9E790480</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FS/049</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GPON05-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>172.25.119.107</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ZTEGD35DAF8C</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ODP-MAT-FW/033</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GPON05-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>172.25.119.107</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>FHTT9E7BC8E8</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GPON05-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>172.25.119.107</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>FHTTC02EDEC9</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>22990303</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2">
-        <v>45475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
-        <v>22990483</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2">
-        <v>45475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GPON07-D7-MAT-4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>172.25.212.139</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>FHTT9E7BCAF0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/playground/read_table/temp.xlsx
+++ b/playground/read_table/temp.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,10 +480,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Max Port</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Ready Port</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>First Updated</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Last Updated</t>
         </is>
@@ -522,8 +532,12 @@
           <t>ODP-MAT-FBM/080</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" s="2" t="n">
+      <c r="I2" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" s="2" t="n">
         <v>45475</v>
       </c>
     </row>
@@ -560,8 +574,12 @@
           <t>ODP-MAT-FF/13</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" s="2" t="n">
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" s="2" t="n">
         <v>45475</v>
       </c>
     </row>
@@ -592,7 +610,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22990465</t>
+          <t>22990459</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -600,13 +618,17 @@
           <t>ODP-MAT-FBW/029</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>2024-02-11 14:50:16</t>
         </is>
       </c>
-      <c r="J4" s="2" t="n">
-        <v>45333.61848379629</v>
+      <c r="L4" s="2" t="n">
+        <v>45333.70420138889</v>
       </c>
     </row>
     <row r="5">
@@ -640,8 +662,12 @@
           <t>ODP-MAT-FS/049</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -674,8 +700,12 @@
           <t>ODP-MAT-FW/033</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>16</v>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -704,8 +734,12 @@
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -734,8 +768,12 @@
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>16</v>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -764,8 +802,12 @@
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
